--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\Alan\Projetos\Sites\Recebimento_de_Carro_Total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0439166-529C-402F-BC61-F8C817665F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEC18F-14C5-4BBE-B170-9D6419F1AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{63E59159-B093-4E63-87FF-97F425808FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Rota</t>
   </si>
@@ -103,6 +106,54 @@
   </si>
   <si>
     <t>80-PIX-BA-LOC-[20A]</t>
+  </si>
+  <si>
+    <t>79-ZOE-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-ARM-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-CMP-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-MCE-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-NTR-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-PTS-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-RAB-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-RIO-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-TES-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-VRO-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-NIG-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-VIX-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-VVA-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-LIN-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-MAC-BA-INT-[TLY]</t>
+  </si>
+  <si>
+    <t>79-ARP-BA-INT-[TLY]</t>
   </si>
 </sst>
 </file>
@@ -138,12 +189,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC7DCE1-253D-4618-A0C0-9D991E196605}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,314 +539,491 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>45229</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>45233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>45226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>45223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>45238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
         <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>45225</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>45229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>45233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
         <v>45226</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>45223</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>45238</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
         <v>45225</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>45238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
         <v>45225</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>45229</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
         <v>45233</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
         <v>45226</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
         <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
         <v>45225</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
         <v>45238</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
         <v>45225</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
         <v>45229</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
         <v>45233</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
         <v>45226</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45233</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C40" xr:uid="{CEC7DCE1-253D-4618-A0C0-9D991E196605}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>